--- a/GR Data Condensed + Outlier Info.xlsx
+++ b/GR Data Condensed + Outlier Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user-pc\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFBAB3BC-F22E-4815-B7D3-03B5242885AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501A354D-FEB3-47C6-A338-1E77774C455D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFD00C56-AB64-4943-BC71-97E07493547E}"/>
   </bookViews>
@@ -35,78 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>December</t>
   </si>
   <si>
     <t>Appliances</t>
@@ -202,11 +133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +456,7 @@
   <dimension ref="A1:AW39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,154 +465,154 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>23</v>
+      <c r="B1" s="4">
+        <v>43466</v>
+      </c>
+      <c r="C1" s="4">
+        <v>43497</v>
+      </c>
+      <c r="D1" s="4">
+        <v>43525</v>
+      </c>
+      <c r="E1" s="4">
+        <v>43556</v>
+      </c>
+      <c r="F1" s="4">
+        <v>43586</v>
+      </c>
+      <c r="G1" s="4">
+        <v>43617</v>
+      </c>
+      <c r="H1" s="4">
+        <v>43647</v>
+      </c>
+      <c r="I1" s="4">
+        <v>43678</v>
+      </c>
+      <c r="J1" s="4">
+        <v>43709</v>
+      </c>
+      <c r="K1" s="4">
+        <v>43739</v>
+      </c>
+      <c r="L1" s="4">
+        <v>43770</v>
+      </c>
+      <c r="M1" s="4">
+        <v>43800</v>
+      </c>
+      <c r="N1" s="4">
+        <v>43831</v>
+      </c>
+      <c r="O1" s="4">
+        <v>43862</v>
+      </c>
+      <c r="P1" s="4">
+        <v>43891</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>43922</v>
+      </c>
+      <c r="R1" s="4">
+        <v>43952</v>
+      </c>
+      <c r="S1" s="4">
+        <v>43983</v>
+      </c>
+      <c r="T1" s="4">
+        <v>44013</v>
+      </c>
+      <c r="U1" s="4">
+        <v>44044</v>
+      </c>
+      <c r="V1" s="4">
+        <v>44075</v>
+      </c>
+      <c r="W1" s="4">
+        <v>44105</v>
+      </c>
+      <c r="X1" s="4">
+        <v>44136</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>44166</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>44197</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>44228</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>44256</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>44287</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>44317</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>44348</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>44378</v>
+      </c>
+      <c r="AG1" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>44440</v>
+      </c>
+      <c r="AI1" s="4">
+        <v>44470</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>44501</v>
+      </c>
+      <c r="AK1" s="4">
+        <v>44531</v>
+      </c>
+      <c r="AL1" s="4">
+        <v>44562</v>
+      </c>
+      <c r="AM1" s="4">
+        <v>44593</v>
+      </c>
+      <c r="AN1" s="4">
+        <v>44621</v>
+      </c>
+      <c r="AO1" s="4">
+        <v>44652</v>
+      </c>
+      <c r="AP1" s="4">
+        <v>44682</v>
+      </c>
+      <c r="AQ1" s="4">
+        <v>44713</v>
+      </c>
+      <c r="AR1" s="4">
+        <v>44743</v>
+      </c>
+      <c r="AS1" s="4">
+        <v>44774</v>
+      </c>
+      <c r="AT1" s="4">
+        <v>44805</v>
+      </c>
+      <c r="AU1" s="4">
+        <v>44835</v>
+      </c>
+      <c r="AV1" s="4">
+        <v>44866</v>
+      </c>
+      <c r="AW1" s="4">
+        <v>44896</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>698</v>
@@ -829,7 +761,7 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>81</v>
@@ -978,7 +910,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>294</v>
@@ -1127,7 +1059,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>108</v>
@@ -1276,7 +1208,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>883</v>
@@ -1425,7 +1357,7 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>233</v>
@@ -1574,7 +1506,7 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>534</v>
@@ -1723,7 +1655,7 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2081</v>
@@ -1872,7 +1804,7 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>492</v>
@@ -2021,7 +1953,7 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>4946</v>
@@ -2170,7 +2102,7 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>886</v>
@@ -2319,7 +2251,7 @@
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>120</v>
@@ -2468,7 +2400,7 @@
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>144</v>
@@ -2617,7 +2549,7 @@
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1137</v>
@@ -2766,7 +2698,7 @@
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>212</v>
@@ -2915,7 +2847,7 @@
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>663</v>
@@ -3064,7 +2996,7 @@
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>839</v>
@@ -3213,198 +3145,198 @@
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <f>SUM(B2:B18)</f>
+        <f t="shared" ref="B19:AW19" si="0">SUM(B2:B18)</f>
         <v>14351</v>
       </c>
       <c r="C19">
-        <f>SUM(C2:C18)</f>
+        <f t="shared" si="0"/>
         <v>18943</v>
       </c>
       <c r="D19">
-        <f>SUM(D2:D18)</f>
+        <f t="shared" si="0"/>
         <v>14405</v>
       </c>
       <c r="E19">
-        <f>SUM(E2:E18)</f>
+        <f t="shared" si="0"/>
         <v>10343</v>
       </c>
       <c r="F19">
-        <f>SUM(F2:F18)</f>
+        <f t="shared" si="0"/>
         <v>15497</v>
       </c>
       <c r="G19">
-        <f>SUM(G2:G18)</f>
+        <f t="shared" si="0"/>
         <v>10479</v>
       </c>
       <c r="H19">
-        <f>SUM(H2:H18)</f>
+        <f t="shared" si="0"/>
         <v>14121</v>
       </c>
       <c r="I19">
-        <f>SUM(I2:I18)</f>
+        <f t="shared" si="0"/>
         <v>13776</v>
       </c>
       <c r="J19">
-        <f>SUM(J2:J18)</f>
+        <f t="shared" si="0"/>
         <v>11532</v>
       </c>
       <c r="K19">
-        <f>SUM(K2:K18)</f>
+        <f t="shared" si="0"/>
         <v>12914</v>
       </c>
       <c r="L19">
-        <f>SUM(L2:L18)</f>
+        <f t="shared" si="0"/>
         <v>15041</v>
       </c>
       <c r="M19">
-        <f>SUM(M2:M18)</f>
+        <f t="shared" si="0"/>
         <v>7522</v>
       </c>
       <c r="N19">
-        <f>SUM(N2:N18)</f>
+        <f t="shared" si="0"/>
         <v>20021</v>
       </c>
       <c r="O19">
-        <f>SUM(O2:O18)</f>
+        <f t="shared" si="0"/>
         <v>10551</v>
       </c>
       <c r="P19">
-        <f>SUM(P2:P18)</f>
+        <f t="shared" si="0"/>
         <v>9950</v>
       </c>
       <c r="Q19" s="2">
-        <f>SUM(Q2:Q18)</f>
+        <f t="shared" si="0"/>
         <v>651</v>
       </c>
       <c r="R19">
-        <f>SUM(R2:R18)</f>
+        <f t="shared" si="0"/>
         <v>3555</v>
       </c>
       <c r="S19">
-        <f>SUM(S2:S18)</f>
+        <f t="shared" si="0"/>
         <v>10238</v>
       </c>
       <c r="T19">
-        <f>SUM(T2:T18)</f>
+        <f t="shared" si="0"/>
         <v>15320</v>
       </c>
       <c r="U19">
-        <f>SUM(U2:U18)</f>
+        <f t="shared" si="0"/>
         <v>16153</v>
       </c>
       <c r="V19">
-        <f>SUM(V2:V18)</f>
+        <f t="shared" si="0"/>
         <v>10184</v>
       </c>
       <c r="W19">
-        <f>SUM(W2:W18)</f>
+        <f t="shared" si="0"/>
         <v>11000</v>
       </c>
       <c r="X19">
-        <f>SUM(X2:X18)</f>
+        <f t="shared" si="0"/>
         <v>10345</v>
       </c>
       <c r="Y19">
-        <f>SUM(Y2:Y18)</f>
+        <f t="shared" si="0"/>
         <v>8603</v>
       </c>
       <c r="Z19">
-        <f>SUM(Z2:Z18)</f>
+        <f t="shared" si="0"/>
         <v>10483</v>
       </c>
       <c r="AA19">
-        <f>SUM(AA2:AA18)</f>
+        <f t="shared" si="0"/>
         <v>8519</v>
       </c>
       <c r="AB19">
-        <f>SUM(AB2:AB18)</f>
+        <f t="shared" si="0"/>
         <v>10363</v>
       </c>
       <c r="AC19">
-        <f>SUM(AC2:AC18)</f>
+        <f t="shared" si="0"/>
         <v>9735</v>
       </c>
       <c r="AD19">
-        <f>SUM(AD2:AD18)</f>
+        <f t="shared" si="0"/>
         <v>10423</v>
       </c>
       <c r="AE19">
-        <f>SUM(AE2:AE18)</f>
+        <f t="shared" si="0"/>
         <v>9362</v>
       </c>
       <c r="AF19">
-        <f>SUM(AF2:AF18)</f>
+        <f t="shared" si="0"/>
         <v>8952</v>
       </c>
       <c r="AG19">
-        <f>SUM(AG2:AG18)</f>
+        <f t="shared" si="0"/>
         <v>8271</v>
       </c>
       <c r="AH19">
-        <f>SUM(AH2:AH18)</f>
+        <f t="shared" si="0"/>
         <v>7320</v>
       </c>
       <c r="AI19">
-        <f>SUM(AI2:AI18)</f>
+        <f t="shared" si="0"/>
         <v>7258</v>
       </c>
       <c r="AJ19">
-        <f>SUM(AJ2:AJ18)</f>
+        <f t="shared" si="0"/>
         <v>9979</v>
       </c>
       <c r="AK19" s="1">
-        <f>SUM(AK2:AK18)</f>
+        <f t="shared" si="0"/>
         <v>11128.757992600928</v>
       </c>
       <c r="AL19" s="1">
-        <f>SUM(AL2:AL18)</f>
+        <f t="shared" si="0"/>
         <v>11831.853507808491</v>
       </c>
       <c r="AM19" s="1">
-        <f>SUM(AM2:AM18)</f>
+        <f t="shared" si="0"/>
         <v>11777.120181746606</v>
       </c>
       <c r="AN19" s="1">
-        <f>SUM(AN2:AN18)</f>
+        <f t="shared" si="0"/>
         <v>11057.124972526795</v>
       </c>
       <c r="AO19" s="1">
-        <f>SUM(AO2:AO18)</f>
+        <f t="shared" si="0"/>
         <v>9408.6272779601859</v>
       </c>
       <c r="AP19" s="1">
-        <f>SUM(AP2:AP18)</f>
+        <f t="shared" si="0"/>
         <v>13108.049572145697</v>
       </c>
       <c r="AQ19" s="1">
-        <f>SUM(AQ2:AQ18)</f>
+        <f t="shared" si="0"/>
         <v>8865.3755094718472</v>
       </c>
       <c r="AR19" s="1">
-        <f>SUM(AR2:AR18)</f>
+        <f t="shared" si="0"/>
         <v>11633.084334694187</v>
       </c>
       <c r="AS19" s="1">
-        <f>SUM(AS2:AS18)</f>
+        <f t="shared" si="0"/>
         <v>11183.752173131528</v>
       </c>
       <c r="AT19" s="1">
-        <f>SUM(AT2:AT18)</f>
+        <f t="shared" si="0"/>
         <v>9941.4079221506199</v>
       </c>
       <c r="AU19" s="1">
-        <f>SUM(AU2:AU18)</f>
+        <f t="shared" si="0"/>
         <v>11660.602364170707</v>
       </c>
       <c r="AV19" s="1">
-        <f>SUM(AV2:AV18)</f>
+        <f t="shared" si="0"/>
         <v>14311.17065463067</v>
       </c>
       <c r="AW19" s="1">
-        <f>SUM(AW2:AW18)</f>
+        <f t="shared" si="0"/>
         <v>12113.457181806169</v>
       </c>
     </row>
@@ -3412,154 +3344,154 @@
       <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" t="s">
-        <v>1</v>
-      </c>
-      <c r="O21" t="s">
-        <v>2</v>
-      </c>
-      <c r="P21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" t="s">
-        <v>6</v>
-      </c>
-      <c r="T21" t="s">
-        <v>7</v>
-      </c>
-      <c r="U21" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" t="s">
-        <v>9</v>
-      </c>
-      <c r="W21" t="s">
-        <v>10</v>
-      </c>
-      <c r="X21" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>12</v>
+      <c r="B21" s="4">
+        <v>43466</v>
+      </c>
+      <c r="C21" s="4">
+        <v>43497</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43525</v>
+      </c>
+      <c r="E21" s="4">
+        <v>43556</v>
+      </c>
+      <c r="F21" s="4">
+        <v>43586</v>
+      </c>
+      <c r="G21" s="4">
+        <v>43617</v>
+      </c>
+      <c r="H21" s="4">
+        <v>43647</v>
+      </c>
+      <c r="I21" s="4">
+        <v>43678</v>
+      </c>
+      <c r="J21" s="4">
+        <v>43709</v>
+      </c>
+      <c r="K21" s="4">
+        <v>43739</v>
+      </c>
+      <c r="L21" s="4">
+        <v>43770</v>
+      </c>
+      <c r="M21" s="4">
+        <v>43800</v>
+      </c>
+      <c r="N21" s="4">
+        <v>43831</v>
+      </c>
+      <c r="O21" s="4">
+        <v>43862</v>
+      </c>
+      <c r="P21" s="4">
+        <v>43891</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>43922</v>
+      </c>
+      <c r="R21" s="4">
+        <v>43952</v>
+      </c>
+      <c r="S21" s="4">
+        <v>43983</v>
+      </c>
+      <c r="T21" s="4">
+        <v>44013</v>
+      </c>
+      <c r="U21" s="4">
+        <v>44044</v>
+      </c>
+      <c r="V21" s="4">
+        <v>44075</v>
+      </c>
+      <c r="W21" s="4">
+        <v>44105</v>
+      </c>
+      <c r="X21" s="4">
+        <v>44136</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>44166</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>44197</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>44228</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>44256</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>44287</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>44317</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>44348</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>44378</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>44440</v>
+      </c>
+      <c r="AI21" s="4">
+        <v>44470</v>
+      </c>
+      <c r="AJ21" s="4">
+        <v>44501</v>
+      </c>
+      <c r="AK21" s="4">
+        <v>44531</v>
+      </c>
+      <c r="AL21" s="4">
+        <v>44562</v>
+      </c>
+      <c r="AM21" s="4">
+        <v>44593</v>
+      </c>
+      <c r="AN21" s="4">
+        <v>44621</v>
+      </c>
+      <c r="AO21" s="4">
+        <v>44652</v>
+      </c>
+      <c r="AP21" s="4">
+        <v>44682</v>
+      </c>
+      <c r="AQ21" s="4">
+        <v>44713</v>
+      </c>
+      <c r="AR21" s="4">
+        <v>44743</v>
+      </c>
+      <c r="AS21" s="4">
+        <v>44774</v>
+      </c>
+      <c r="AT21" s="4">
+        <v>44805</v>
+      </c>
+      <c r="AU21" s="4">
+        <v>44835</v>
+      </c>
+      <c r="AV21" s="4">
+        <v>44866</v>
+      </c>
+      <c r="AW21" s="4">
+        <v>44896</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3620,7 +3552,7 @@
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3673,7 +3605,7 @@
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B24" s="2">
         <v>294</v>
@@ -3814,7 +3746,7 @@
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3871,7 +3803,7 @@
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3924,7 +3856,7 @@
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3977,7 +3909,7 @@
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4032,7 +3964,7 @@
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4087,7 +4019,7 @@
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4146,7 +4078,7 @@
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4201,7 +4133,7 @@
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4258,7 +4190,7 @@
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4317,7 +4249,7 @@
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4376,7 +4308,7 @@
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4429,7 +4361,7 @@
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4482,7 +4414,7 @@
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4541,7 +4473,7 @@
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>

--- a/GR Data Condensed + Outlier Info.xlsx
+++ b/GR Data Condensed + Outlier Info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user-pc\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user-pc\Downloads\4348007\4348007\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501A354D-FEB3-47C6-A338-1E77774C455D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAF1493-DC13-4C8E-A4C0-687C42665749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFD00C56-AB64-4943-BC71-97E07493547E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
   <si>
     <t>Category</t>
   </si>
@@ -92,13 +92,154 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Jan_2019</t>
+  </si>
+  <si>
+    <t>Feb_2019</t>
+  </si>
+  <si>
+    <t>Jan_2020</t>
+  </si>
+  <si>
+    <t>Feb_2020</t>
+  </si>
+  <si>
+    <t>Jan_2021</t>
+  </si>
+  <si>
+    <t>Feb_2021</t>
+  </si>
+  <si>
+    <t>Jan_2022</t>
+  </si>
+  <si>
+    <t>Feb_2022</t>
+  </si>
+  <si>
+    <t>Mar_2019</t>
+  </si>
+  <si>
+    <t>Apr_2019</t>
+  </si>
+  <si>
+    <t>May_2019</t>
+  </si>
+  <si>
+    <t>Jun_2019</t>
+  </si>
+  <si>
+    <t>Jul_2019</t>
+  </si>
+  <si>
+    <t>Aug_2019</t>
+  </si>
+  <si>
+    <t>Sep_2019</t>
+  </si>
+  <si>
+    <t>Oct_2019</t>
+  </si>
+  <si>
+    <t>Nov_2019</t>
+  </si>
+  <si>
+    <t>Dec_2019</t>
+  </si>
+  <si>
+    <t>Mar_2020</t>
+  </si>
+  <si>
+    <t>Apr_2020</t>
+  </si>
+  <si>
+    <t>May_2020</t>
+  </si>
+  <si>
+    <t>Jun_2020</t>
+  </si>
+  <si>
+    <t>Jul_2020</t>
+  </si>
+  <si>
+    <t>Aug_2020</t>
+  </si>
+  <si>
+    <t>Sep_2020</t>
+  </si>
+  <si>
+    <t>Oct_2020</t>
+  </si>
+  <si>
+    <t>Nov_2020</t>
+  </si>
+  <si>
+    <t>Dec_2020</t>
+  </si>
+  <si>
+    <t>Mar_2021</t>
+  </si>
+  <si>
+    <t>Apr_2021</t>
+  </si>
+  <si>
+    <t>May_2021</t>
+  </si>
+  <si>
+    <t>Jun_2021</t>
+  </si>
+  <si>
+    <t>Jul_2021</t>
+  </si>
+  <si>
+    <t>Aug_2021</t>
+  </si>
+  <si>
+    <t>Sep_2021</t>
+  </si>
+  <si>
+    <t>Oct_2021</t>
+  </si>
+  <si>
+    <t>Nov_2021</t>
+  </si>
+  <si>
+    <t>Dec_2022</t>
+  </si>
+  <si>
+    <t>Mar_2022</t>
+  </si>
+  <si>
+    <t>Apr_2022</t>
+  </si>
+  <si>
+    <t>May_2022</t>
+  </si>
+  <si>
+    <t>Jun_2022</t>
+  </si>
+  <si>
+    <t>Jul_2022</t>
+  </si>
+  <si>
+    <t>Aug_2022</t>
+  </si>
+  <si>
+    <t>Sep_2022</t>
+  </si>
+  <si>
+    <t>Oct_2022</t>
+  </si>
+  <si>
+    <t>Nov_2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +249,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,12 +280,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +606,7 @@
   <dimension ref="A1:AW39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,149 +615,149 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
-        <v>43466</v>
-      </c>
-      <c r="C1" s="4">
-        <v>43497</v>
-      </c>
-      <c r="D1" s="4">
-        <v>43525</v>
-      </c>
-      <c r="E1" s="4">
-        <v>43556</v>
-      </c>
-      <c r="F1" s="4">
-        <v>43586</v>
-      </c>
-      <c r="G1" s="4">
-        <v>43617</v>
-      </c>
-      <c r="H1" s="4">
-        <v>43647</v>
-      </c>
-      <c r="I1" s="4">
-        <v>43678</v>
-      </c>
-      <c r="J1" s="4">
-        <v>43709</v>
-      </c>
-      <c r="K1" s="4">
-        <v>43739</v>
-      </c>
-      <c r="L1" s="4">
-        <v>43770</v>
-      </c>
-      <c r="M1" s="4">
-        <v>43800</v>
-      </c>
-      <c r="N1" s="4">
-        <v>43831</v>
-      </c>
-      <c r="O1" s="4">
-        <v>43862</v>
-      </c>
-      <c r="P1" s="4">
-        <v>43891</v>
-      </c>
-      <c r="Q1" s="4">
-        <v>43922</v>
-      </c>
-      <c r="R1" s="4">
-        <v>43952</v>
-      </c>
-      <c r="S1" s="4">
-        <v>43983</v>
-      </c>
-      <c r="T1" s="4">
-        <v>44013</v>
-      </c>
-      <c r="U1" s="4">
-        <v>44044</v>
-      </c>
-      <c r="V1" s="4">
-        <v>44075</v>
-      </c>
-      <c r="W1" s="4">
-        <v>44105</v>
-      </c>
-      <c r="X1" s="4">
-        <v>44136</v>
-      </c>
-      <c r="Y1" s="4">
-        <v>44166</v>
-      </c>
-      <c r="Z1" s="4">
-        <v>44197</v>
-      </c>
-      <c r="AA1" s="4">
-        <v>44228</v>
-      </c>
-      <c r="AB1" s="4">
-        <v>44256</v>
-      </c>
-      <c r="AC1" s="4">
-        <v>44287</v>
-      </c>
-      <c r="AD1" s="4">
-        <v>44317</v>
-      </c>
-      <c r="AE1" s="4">
-        <v>44348</v>
-      </c>
-      <c r="AF1" s="4">
-        <v>44378</v>
-      </c>
-      <c r="AG1" s="4">
-        <v>44409</v>
-      </c>
-      <c r="AH1" s="4">
-        <v>44440</v>
-      </c>
-      <c r="AI1" s="4">
-        <v>44470</v>
-      </c>
-      <c r="AJ1" s="4">
-        <v>44501</v>
-      </c>
-      <c r="AK1" s="4">
-        <v>44531</v>
-      </c>
-      <c r="AL1" s="4">
-        <v>44562</v>
-      </c>
-      <c r="AM1" s="4">
-        <v>44593</v>
-      </c>
-      <c r="AN1" s="4">
-        <v>44621</v>
-      </c>
-      <c r="AO1" s="4">
-        <v>44652</v>
-      </c>
-      <c r="AP1" s="4">
-        <v>44682</v>
-      </c>
-      <c r="AQ1" s="4">
-        <v>44713</v>
-      </c>
-      <c r="AR1" s="4">
-        <v>44743</v>
-      </c>
-      <c r="AS1" s="4">
-        <v>44774</v>
-      </c>
-      <c r="AT1" s="4">
-        <v>44805</v>
-      </c>
-      <c r="AU1" s="4">
-        <v>44835</v>
-      </c>
-      <c r="AV1" s="4">
-        <v>44866</v>
-      </c>
-      <c r="AW1" s="4">
-        <v>44896</v>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW1" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
@@ -3344,149 +3494,149 @@
       <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="4">
-        <v>43466</v>
-      </c>
-      <c r="C21" s="4">
-        <v>43497</v>
-      </c>
-      <c r="D21" s="4">
-        <v>43525</v>
-      </c>
-      <c r="E21" s="4">
-        <v>43556</v>
-      </c>
-      <c r="F21" s="4">
-        <v>43586</v>
-      </c>
-      <c r="G21" s="4">
-        <v>43617</v>
-      </c>
-      <c r="H21" s="4">
-        <v>43647</v>
-      </c>
-      <c r="I21" s="4">
-        <v>43678</v>
-      </c>
-      <c r="J21" s="4">
-        <v>43709</v>
-      </c>
-      <c r="K21" s="4">
-        <v>43739</v>
-      </c>
-      <c r="L21" s="4">
-        <v>43770</v>
-      </c>
-      <c r="M21" s="4">
-        <v>43800</v>
-      </c>
-      <c r="N21" s="4">
-        <v>43831</v>
-      </c>
-      <c r="O21" s="4">
-        <v>43862</v>
-      </c>
-      <c r="P21" s="4">
-        <v>43891</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>43922</v>
-      </c>
-      <c r="R21" s="4">
-        <v>43952</v>
-      </c>
-      <c r="S21" s="4">
-        <v>43983</v>
-      </c>
-      <c r="T21" s="4">
-        <v>44013</v>
-      </c>
-      <c r="U21" s="4">
-        <v>44044</v>
-      </c>
-      <c r="V21" s="4">
-        <v>44075</v>
-      </c>
-      <c r="W21" s="4">
-        <v>44105</v>
-      </c>
-      <c r="X21" s="4">
-        <v>44136</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>44166</v>
-      </c>
-      <c r="Z21" s="4">
-        <v>44197</v>
-      </c>
-      <c r="AA21" s="4">
-        <v>44228</v>
-      </c>
-      <c r="AB21" s="4">
-        <v>44256</v>
-      </c>
-      <c r="AC21" s="4">
-        <v>44287</v>
-      </c>
-      <c r="AD21" s="4">
-        <v>44317</v>
-      </c>
-      <c r="AE21" s="4">
-        <v>44348</v>
-      </c>
-      <c r="AF21" s="4">
-        <v>44378</v>
-      </c>
-      <c r="AG21" s="4">
-        <v>44409</v>
-      </c>
-      <c r="AH21" s="4">
-        <v>44440</v>
-      </c>
-      <c r="AI21" s="4">
-        <v>44470</v>
-      </c>
-      <c r="AJ21" s="4">
-        <v>44501</v>
-      </c>
-      <c r="AK21" s="4">
-        <v>44531</v>
-      </c>
-      <c r="AL21" s="4">
-        <v>44562</v>
-      </c>
-      <c r="AM21" s="4">
-        <v>44593</v>
-      </c>
-      <c r="AN21" s="4">
-        <v>44621</v>
-      </c>
-      <c r="AO21" s="4">
-        <v>44652</v>
-      </c>
-      <c r="AP21" s="4">
-        <v>44682</v>
-      </c>
-      <c r="AQ21" s="4">
-        <v>44713</v>
-      </c>
-      <c r="AR21" s="4">
-        <v>44743</v>
-      </c>
-      <c r="AS21" s="4">
-        <v>44774</v>
-      </c>
-      <c r="AT21" s="4">
-        <v>44805</v>
-      </c>
-      <c r="AU21" s="4">
-        <v>44835</v>
-      </c>
-      <c r="AV21" s="4">
-        <v>44866</v>
-      </c>
-      <c r="AW21" s="4">
-        <v>44896</v>
+      <c r="B21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW21" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
@@ -4579,6 +4729,7 @@
       <c r="AW39" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GR Data Condensed + Outlier Info.xlsx
+++ b/GR Data Condensed + Outlier Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user-pc\Downloads\4348007\4348007\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAF1493-DC13-4C8E-A4C0-687C42665749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB4FD99-E500-42FD-9012-E7CBA4E70387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFD00C56-AB64-4943-BC71-97E07493547E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
   <si>
     <t>Category</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>Nov_2022</t>
+  </si>
+  <si>
+    <t>Dec_2021</t>
   </si>
 </sst>
 </file>
@@ -605,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F10AD4-7AA3-4844-9F99-4F3CA2805F20}">
   <dimension ref="A1:AW39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +724,7 @@
         <v>55</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AL1" s="7" t="s">
         <v>25</v>
